--- a/Luban/Datas/Hunter/card.xlsx
+++ b/Luban/Datas/Hunter/card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>##</t>
   </si>
@@ -25,12 +25,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
-    <t>cost</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -40,28 +43,70 @@
     <t>string</t>
   </si>
   <si>
+    <t>CardType</t>
+  </si>
+  <si>
     <t>道具id</t>
   </si>
   <si>
     <t>名字</t>
   </si>
   <si>
-    <t>杀</t>
-  </si>
-  <si>
-    <t>发起一次普通攻击</t>
-  </si>
-  <si>
-    <t>闪</t>
-  </si>
-  <si>
-    <t>闪避一次攻击</t>
-  </si>
-  <si>
-    <t>盾</t>
-  </si>
-  <si>
-    <t>加3点护甲</t>
+    <t>消耗能量</t>
+  </si>
+  <si>
+    <t>基础卡牌类型</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>升龙</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>体术 堆叠中每结算一次体术，伤害加50%</t>
+  </si>
+  <si>
+    <t>腿</t>
+  </si>
+  <si>
+    <t>体术 没有堆叠时打出伤害加50%。</t>
+  </si>
+  <si>
+    <t>拳</t>
+  </si>
+  <si>
+    <t>体术 有堆叠时打出生效2次。</t>
+  </si>
+  <si>
+    <t>拆</t>
+  </si>
+  <si>
+    <t>瞬时结算，堆叠中每有一个敌方体术，消耗减少1来打出。移除堆叠中所有体术。</t>
+  </si>
+  <si>
+    <t>投</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>伤10，体术。如果没被响应，抓2牌。</t>
+  </si>
+  <si>
+    <t>护体</t>
+  </si>
+  <si>
+    <t>直到下个回合结束，免伤50%</t>
+  </si>
+  <si>
+    <t>炼气</t>
+  </si>
+  <si>
+    <t>没被响应则直到下回合结束，增伤50%</t>
   </si>
 </sst>
 </file>
@@ -69,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +128,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,44 +159,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -137,17 +234,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,13 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -175,53 +265,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,15 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,6 +486,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,47 +538,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,10 +554,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,127 +596,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,18 +1041,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="17.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="79.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1023,75 +1070,167 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="D6">
         <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Datas/Hunter/card.xlsx
+++ b/Luban/Datas/Hunter/card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="14250"/>
+    <workbookView windowWidth="24225" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>##</t>
   </si>
@@ -64,7 +64,7 @@
     <t>升龙</t>
   </si>
   <si>
-    <t>Response</t>
+    <t>Skill</t>
   </si>
   <si>
     <t>体术 堆叠中每结算一次体术，伤害加50%</t>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>投</t>
-  </si>
-  <si>
-    <t>Action</t>
   </si>
   <si>
     <t>伤10，体术。如果没被响应，抓2牌。</t>
@@ -114,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,8 +133,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,14 +171,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,71 +216,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,25 +232,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,175 +284,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,32 +487,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,8 +523,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,28 +569,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,130 +590,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,7 +1041,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1193,10 +1190,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1204,16 +1201,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1221,16 +1218,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
